--- a/docs/unit1/02_head/Excel files/head calc (key).xlsx
+++ b/docs/unit1/02_head/Excel files/head calc (key).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Norm/Documents/Courses/CE 547/exercises/01. head/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/PycharmProjects/ce547/docs/unit1/02_head/Excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E55E86-E2BB-DE43-A287-E992C176728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22460"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,21 @@
     <definedName name="Qh">Sheet1!#REF!</definedName>
     <definedName name="Qv">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -73,19 +85,19 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Brigham Young University - CE En 547</t>
-  </si>
-  <si>
     <t>Part 2 - Flow Net Calculations</t>
   </si>
   <si>
     <t>Part 1 - Capillary Rise</t>
+  </si>
+  <si>
+    <t>Brigham Young University - CE 547</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -160,17 +172,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -182,6 +194,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,7 +214,13 @@
     <xdr:ext cx="194454" cy="283457"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -260,6 +281,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -317,7 +341,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -629,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,12 +684,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -742,7 +772,7 @@
     </row>
     <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -846,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -858,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
